--- a/public/excel_files/generated-plantilla-BETS.xlsx
+++ b/public/excel_files/generated-plantilla-BETS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Branch Name:</t>
   </si>
@@ -30,6 +30,24 @@
   </si>
   <si>
     <t>ADMINISTRATIVE ASSITANT</t>
+  </si>
+  <si>
+    <t>DRAW TEAM STAFF</t>
+  </si>
+  <si>
+    <t>FINANCE STAFF/AUDIT</t>
+  </si>
+  <si>
+    <t>DRIVER</t>
+  </si>
+  <si>
+    <t>TREASURY STAFF</t>
+  </si>
+  <si>
+    <t>TREASURY CLERK</t>
+  </si>
+  <si>
+    <t>AREA COLLECTOR SUPERVISOR</t>
   </si>
   <si>
     <t>ADMINISTRATION</t>
@@ -1485,19 +1503,53 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:1025" customHeight="1" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:1025" customHeight="1" ht="15">
       <c r="A7" s="1"/>
